--- a/data/AG.xlsx
+++ b/data/AG.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -371,6 +371,21 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
+          <t>Corequisites</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Concurrent</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Recommended</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
           <t>Terms Typically Offered</t>
         </is>
       </c>
@@ -393,6 +408,21 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
           <t>F, W, SP</t>
         </is>
       </c>
@@ -415,6 +445,21 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
           <t>F, W, SP</t>
         </is>
       </c>
@@ -437,6 +482,21 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
           <t>W</t>
         </is>
       </c>
@@ -459,6 +519,21 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
           <t>F, W, SP</t>
         </is>
       </c>
@@ -481,6 +556,21 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
           <t>SP</t>
         </is>
       </c>
@@ -503,6 +593,21 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
           <t>SP</t>
         </is>
       </c>
@@ -525,6 +630,21 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -547,6 +667,21 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
           <t>F, W, SP</t>
         </is>
       </c>
@@ -569,6 +704,21 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
           <t>F</t>
         </is>
       </c>
@@ -591,6 +741,21 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
           <t>F, W, SP</t>
         </is>
       </c>
@@ -613,6 +778,21 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
           <t>F, W, SP</t>
         </is>
       </c>
@@ -630,10 +810,25 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>AG 210.</t>
+          <t>AG 210.</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
         <is>
           <t>F, W, SP</t>
         </is>
@@ -652,10 +847,25 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>AG 212.</t>
+          <t>AG 212.</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -674,10 +884,25 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>AG 412.</t>
+          <t>AG 412.</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
         <is>
           <t>SP</t>
         </is>
@@ -701,6 +926,21 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
           <t>F, W, SP</t>
         </is>
       </c>
@@ -723,6 +963,21 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
           <t>W</t>
         </is>
       </c>
@@ -740,10 +995,25 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>AGED 404 and senior standing.</t>
+          <t>AGED 404 and senior standing.</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
         <is>
           <t>SP</t>
         </is>
@@ -767,6 +1037,21 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -789,6 +1074,21 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -811,6 +1111,21 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
           <t>F, W, SP</t>
         </is>
       </c>
@@ -833,6 +1148,21 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
           <t>F, W, SP</t>
         </is>
       </c>
@@ -855,6 +1185,21 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
           <t>W</t>
         </is>
       </c>
@@ -877,6 +1222,21 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -899,6 +1259,21 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -921,6 +1296,21 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
           <t>F, W, SP</t>
         </is>
       </c>
@@ -942,6 +1332,21 @@
         </is>
       </c>
       <c r="D27" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
         <is>
           <t>F, W, SP</t>
         </is>
